--- a/sms.xlsx
+++ b/sms.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>تقی</t>
+  </si>
+  <si>
+    <t>09123619975</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,7 +403,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -425,8 +428,8 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>989123619975</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -436,8 +439,8 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>989123619975</v>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -447,8 +450,8 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>989123619975</v>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -458,8 +461,8 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>989123619975</v>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -469,8 +472,8 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
-        <v>989123619975</v>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
